--- a/Fundamentals of artificial intelligence/91ПИ.xlsx
+++ b/Fundamentals of artificial intelligence/91ПИ.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\91PI\Fundamentals of artificial intelligence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DD217F-4D0F-4510-8C8A-EF71B7EAD3A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4680FF5-7128-48AB-A127-FDE3C2618CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -165,13 +165,13 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -458,7 +458,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,26 +478,26 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
+      <c r="I1" s="3"/>
+      <c r="J1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="3"/>
+      <c r="K1" s="4"/>
       <c r="L1" s="5" t="s">
         <v>21</v>
       </c>
@@ -531,7 +531,7 @@
       <c r="J2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="L2" s="5"/>
@@ -549,7 +549,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="4"/>
+      <c r="K3" s="2"/>
       <c r="L3" s="1">
         <f>SUM(B3:K3)</f>
         <v>0</v>
@@ -559,38 +559,46 @@
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1">
+        <v>10</v>
+      </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1">
+        <v>10</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="4"/>
+      <c r="K4" s="2"/>
       <c r="L4" s="1">
         <f t="shared" ref="L4:L16" si="0">SUM(B4:K4)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1">
+        <v>10</v>
+      </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1">
+        <v>10</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="4"/>
+      <c r="K5" s="2"/>
       <c r="L5" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -606,7 +614,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="4"/>
+      <c r="K6" s="2"/>
       <c r="L6" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -625,7 +633,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="4"/>
+      <c r="K7" s="2"/>
       <c r="L7" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -635,19 +643,23 @@
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="1">
+        <v>10</v>
+      </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1">
+        <v>10</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="4"/>
+      <c r="K8" s="2"/>
       <c r="L8" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -663,7 +675,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="4"/>
+      <c r="K9" s="2"/>
       <c r="L9" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -682,7 +694,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="4"/>
+      <c r="K10" s="2"/>
       <c r="L10" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -692,19 +704,23 @@
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="1"/>
+      <c r="B11" s="1">
+        <v>10</v>
+      </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1">
+        <v>10</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="4"/>
+      <c r="K11" s="2"/>
       <c r="L11" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -720,7 +736,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="4"/>
+      <c r="K12" s="2"/>
       <c r="L12" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -739,7 +755,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="4"/>
+      <c r="K13" s="2"/>
       <c r="L13" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -749,19 +765,23 @@
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="1"/>
+      <c r="B14" s="1">
+        <v>10</v>
+      </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="D14" s="1">
+        <v>10</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="4"/>
+      <c r="K14" s="2"/>
       <c r="L14" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -777,7 +797,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="4"/>
+      <c r="K15" s="2"/>
       <c r="L15" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -787,29 +807,33 @@
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="1"/>
+      <c r="B16" s="1">
+        <v>10</v>
+      </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="D16" s="1">
+        <v>10</v>
+      </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="4"/>
+      <c r="K16" s="2"/>
       <c r="L16" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="L1:L2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Fundamentals of artificial intelligence/91ПИ.xlsx
+++ b/Fundamentals of artificial intelligence/91ПИ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\91PI\Fundamentals of artificial intelligence\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IMS\Desktop\91PI\Fundamentals of artificial intelligence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4680FF5-7128-48AB-A127-FDE3C2618CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B102B240-6E3F-44FD-A75E-7A8579EC005B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -167,13 +167,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -458,7 +458,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,27 +478,27 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3" t="s">
+      <c r="I1" s="4"/>
+      <c r="J1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="5" t="s">
+      <c r="K1" s="5"/>
+      <c r="L1" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -534,7 +534,7 @@
       <c r="K2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="5"/>
+      <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -567,7 +567,9 @@
         <v>10</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1">
+        <v>10</v>
+      </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -575,7 +577,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="1">
         <f t="shared" ref="L4:L16" si="0">SUM(B4:K4)</f>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -590,7 +592,9 @@
         <v>10</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1">
+        <v>10</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -598,7 +602,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="1">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -651,7 +655,9 @@
         <v>10</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1">
+        <v>10</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -659,7 +665,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="1">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -712,7 +718,9 @@
         <v>10</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="F11" s="1">
+        <v>10</v>
+      </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -720,7 +728,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="1">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -773,7 +781,9 @@
         <v>10</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1">
+        <v>10</v>
+      </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -781,7 +791,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="1">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -815,7 +825,9 @@
         <v>10</v>
       </c>
       <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="F16" s="1">
+        <v>10</v>
+      </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -823,7 +835,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="1">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Fundamentals of artificial intelligence/91ПИ.xlsx
+++ b/Fundamentals of artificial intelligence/91ПИ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IMS\Desktop\91PI\Fundamentals of artificial intelligence\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\91PI-main\Fundamentals of artificial intelligence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B102B240-6E3F-44FD-A75E-7A8579EC005B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7435F9EC-E210-4828-8EF9-3C1C4D1773EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -458,7 +458,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,7 +562,9 @@
       <c r="B4" s="1">
         <v>10</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1">
+        <v>10</v>
+      </c>
       <c r="D4" s="1">
         <v>10</v>
       </c>
@@ -571,13 +573,19 @@
         <v>10</v>
       </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="H4" s="1">
+        <v>10</v>
+      </c>
+      <c r="I4" s="1">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1">
+        <v>10</v>
+      </c>
       <c r="K4" s="2"/>
       <c r="L4" s="1">
         <f t="shared" ref="L4:L16" si="0">SUM(B4:K4)</f>
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -650,11 +658,15 @@
       <c r="B8" s="1">
         <v>10</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1">
+        <v>10</v>
+      </c>
       <c r="D8" s="1">
         <v>10</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1">
+        <v>10</v>
+      </c>
       <c r="F8" s="1">
         <v>10</v>
       </c>
@@ -665,7 +677,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="1">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -754,19 +766,35 @@
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="B13" s="1">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1">
+        <v>10</v>
+      </c>
+      <c r="D13" s="1">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1">
+        <v>10</v>
+      </c>
+      <c r="F13" s="1">
+        <v>10</v>
+      </c>
+      <c r="G13" s="1">
+        <v>10</v>
+      </c>
+      <c r="H13" s="1">
+        <v>10</v>
+      </c>
+      <c r="I13" s="1">
+        <v>10</v>
+      </c>
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
       <c r="L13" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -776,41 +804,71 @@
       <c r="B14" s="1">
         <v>10</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1">
+        <v>10</v>
+      </c>
       <c r="D14" s="1">
         <v>10</v>
       </c>
-      <c r="E14" s="1"/>
+      <c r="E14" s="1">
+        <v>10</v>
+      </c>
       <c r="F14" s="1">
         <v>10</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="2"/>
+      <c r="G14" s="1">
+        <v>10</v>
+      </c>
+      <c r="H14" s="1">
+        <v>10</v>
+      </c>
+      <c r="I14" s="1">
+        <v>10</v>
+      </c>
+      <c r="J14" s="1">
+        <v>10</v>
+      </c>
+      <c r="K14" s="2">
+        <v>10</v>
+      </c>
       <c r="L14" s="1">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="B15" s="1">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1">
+        <v>10</v>
+      </c>
+      <c r="E15" s="1">
+        <v>10</v>
+      </c>
+      <c r="F15" s="1">
+        <v>10</v>
+      </c>
+      <c r="G15" s="1">
+        <v>10</v>
+      </c>
+      <c r="H15" s="1">
+        <v>10</v>
+      </c>
+      <c r="I15" s="1">
+        <v>10</v>
+      </c>
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
       <c r="L15" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -820,22 +878,34 @@
       <c r="B16" s="1">
         <v>10</v>
       </c>
-      <c r="C16" s="1"/>
+      <c r="C16" s="1">
+        <v>10</v>
+      </c>
       <c r="D16" s="1">
         <v>10</v>
       </c>
-      <c r="E16" s="1"/>
+      <c r="E16" s="1">
+        <v>10</v>
+      </c>
       <c r="F16" s="1">
         <v>10</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="G16" s="1">
+        <v>10</v>
+      </c>
+      <c r="H16" s="1">
+        <v>10</v>
+      </c>
       <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="2"/>
+      <c r="J16" s="1">
+        <v>10</v>
+      </c>
+      <c r="K16" s="2">
+        <v>10</v>
+      </c>
       <c r="L16" s="1">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
